--- a/data/customer.xlsx
+++ b/data/customer.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G6"/>
+  <dimension ref="A1:B8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -436,165 +436,83 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
+          <t>고객번호</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
           <t>이름</t>
         </is>
       </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>학년</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>성별</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>국어</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>영어</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>수학</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
-          <t>과학</t>
-        </is>
-      </c>
     </row>
     <row r="2">
-      <c r="A2" s="1" t="inlineStr">
-        <is>
-          <t>철수</t>
-        </is>
-      </c>
-      <c r="B2" t="n">
-        <v>1</v>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>남자</t>
-        </is>
-      </c>
-      <c r="D2" t="n">
-        <v>98</v>
-      </c>
-      <c r="E2" t="inlineStr"/>
-      <c r="F2" t="n">
-        <v>88</v>
-      </c>
-      <c r="G2" t="n">
-        <v>64</v>
+      <c r="A2" s="1" t="n">
+        <v>1001</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>둘리</t>
+        </is>
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="1" t="inlineStr">
+      <c r="A3" s="1" t="n">
+        <v>1002</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>도우너</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>1003</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>또치</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>1004</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>길동</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>1005</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>희동</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>1006</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>마이콜</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>1007</v>
+      </c>
+      <c r="B8" t="inlineStr">
         <is>
           <t>영희</t>
         </is>
-      </c>
-      <c r="B3" t="n">
-        <v>2</v>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>여자</t>
-        </is>
-      </c>
-      <c r="D3" t="n">
-        <v>88</v>
-      </c>
-      <c r="E3" t="n">
-        <v>90</v>
-      </c>
-      <c r="F3" t="n">
-        <v>62</v>
-      </c>
-      <c r="G3" t="n">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="1" t="inlineStr">
-        <is>
-          <t>민철</t>
-        </is>
-      </c>
-      <c r="B4" t="n">
-        <v>1</v>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>남자</t>
-        </is>
-      </c>
-      <c r="D4" t="n">
-        <v>92</v>
-      </c>
-      <c r="E4" t="n">
-        <v>70</v>
-      </c>
-      <c r="F4" t="inlineStr"/>
-      <c r="G4" t="inlineStr"/>
-    </row>
-    <row r="5">
-      <c r="A5" s="1" t="inlineStr">
-        <is>
-          <t>수현</t>
-        </is>
-      </c>
-      <c r="B5" t="n">
-        <v>3</v>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>여자</t>
-        </is>
-      </c>
-      <c r="D5" t="n">
-        <v>63</v>
-      </c>
-      <c r="E5" t="n">
-        <v>60</v>
-      </c>
-      <c r="F5" t="n">
-        <v>31</v>
-      </c>
-      <c r="G5" t="n">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="1" t="inlineStr">
-        <is>
-          <t>호영</t>
-        </is>
-      </c>
-      <c r="B6" t="n">
-        <v>4</v>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>남자</t>
-        </is>
-      </c>
-      <c r="D6" t="n">
-        <v>120</v>
-      </c>
-      <c r="E6" t="n">
-        <v>50</v>
-      </c>
-      <c r="F6" t="inlineStr"/>
-      <c r="G6" t="n">
-        <v>88</v>
       </c>
     </row>
   </sheetData>
